--- a/participants-BRA.xlsx
+++ b/participants-BRA.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USER\PROJETOS\SDLF\TREINAMENTO-SDLF\OFICIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USER\PROJETOS\SDLF\TREINAMENTO-SDLF\OFICIAL\workshop1\ppb-sdlf-athena-workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1EB41-E5F0-4588-AF00-B83B6A47C4EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2143D737-8FD6-476F-BC4B-C972CED81DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{232FC749-A99E-4494-A68A-28F6B0F2A49E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{232FC749-A99E-4494-A68A-28F6B0F2A49E}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees BRA" sheetId="1" r:id="rId1"/>
-    <sheet name="Quiz Email" sheetId="5" r:id="rId2"/>
-    <sheet name="Waiting list" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Attendees BRA'!$A$1:$H$1</definedName>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -218,12 +216,6 @@
     <t>Francisco Luan Ferreira Brito</t>
   </si>
   <si>
-    <t>Jean Gabriel Ferreira</t>
-  </si>
-  <si>
-    <t>Jean.Ferreira@compasso.com.br</t>
-  </si>
-  <si>
     <t>luan.Ferreira@compasso.com.br</t>
   </si>
   <si>
@@ -429,41 +421,19 @@
   </si>
   <si>
     <t>https://dashboard.eventengine.run/login?hash=2c12-08f21509d4-41</t>
-  </si>
-  <si>
-    <t>Somente IA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -489,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,188 +468,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,65 +499,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1074,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3CB2E9-EE59-4BE9-8ECE-FD625B47E81F}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,62 +850,62 @@
     <col min="4" max="4" width="59.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>119</v>
+      <c r="D2" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1153,11 +915,11 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1167,11 +929,11 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1181,109 +943,109 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1293,11 +1055,11 @@
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1307,11 +1069,11 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1321,237 +1083,235 @@
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>66</v>
+      <c r="C24" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>65</v>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>64</v>
+      <c r="C26" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1559,111 +1319,97 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1701,155 +1447,26 @@
     <hyperlink ref="C20" r:id="rId31" xr:uid="{3351B658-EE1D-504F-80AC-38421A11F80F}"/>
     <hyperlink ref="C21" r:id="rId32" xr:uid="{32138484-3EA4-BF47-98C1-E1884C4CF819}"/>
     <hyperlink ref="C22" r:id="rId33" xr:uid="{2DD6220C-E84E-E74F-8189-FD01B4DE87CF}"/>
-    <hyperlink ref="C27" r:id="rId34" tooltip="mailto:Jean.Ferreira@compasso.com.br" display="mailto:Jean.Ferreira@compasso.com.br" xr:uid="{99269AD8-235E-224B-9920-FB1E0017A102}"/>
-    <hyperlink ref="C26" r:id="rId35" tooltip="mailto:luan.Ferreira@compasso.com.br" display="mailto:luan.Ferreira@compasso.com.br" xr:uid="{FA582E8E-51F4-664E-8F96-2D82DD9A307C}"/>
-    <hyperlink ref="C25" r:id="rId36" tooltip="mailto:Mateus.Balen@compasso.com.br" display="mailto:Mateus.Balen@compasso.com.br" xr:uid="{4CE8DC1E-93F6-DB49-82DB-33407495D6B6}"/>
-    <hyperlink ref="C24" r:id="rId37" tooltip="mailto:Tiago.Didone@compasso.com.br" display="mailto:Tiago.Didone@compasso.com.br" xr:uid="{8C3A38DA-2FB8-2A4E-9542-ECF4B5CBA2B6}"/>
-    <hyperlink ref="C23" r:id="rId38" xr:uid="{43B6AAD3-CC3F-224A-A3AE-1DA5499A7E8A}"/>
-    <hyperlink ref="C28" r:id="rId39" tooltip="mailto:flaibam.ph@tcs.com" display="mailto:flaibam.ph@tcs.com" xr:uid="{80D3AC66-6AF9-FF47-911B-A842C71F929A}"/>
-    <hyperlink ref="C29" r:id="rId40" tooltip="mailto:paulocezar.santos@tcs.com" display="mailto:paulocezar.santos@tcs.com" xr:uid="{F23B156A-6352-2B44-B1E3-CE4A2668F7AC}"/>
-    <hyperlink ref="C30" r:id="rId41" tooltip="mailto:andrade.caio@tcs.com" display="mailto:andrade.caio@tcs.com" xr:uid="{1850B7EB-2442-1B45-ABF3-FC1FE1D7FB94}"/>
-    <hyperlink ref="C31" r:id="rId42" tooltip="mailto:robert.martelli@tcs.com" display="mailto:robert.martelli@tcs.com" xr:uid="{0025F52C-AC58-094D-B390-74417AB3187C}"/>
-    <hyperlink ref="C32" r:id="rId43" tooltip="mailto:roberto.hindrikson@tcs.com" display="mailto:roberto.hindrikson@tcs.com" xr:uid="{8304CDE6-C640-D944-A4BE-4E5BC4E4931E}"/>
-    <hyperlink ref="C33" r:id="rId44" tooltip="mailto:islan.coelho@tcs.com" display="mailto:islan.coelho@tcs.com" xr:uid="{F852C3F6-2BD0-9E42-8277-7EA1D387B72E}"/>
-    <hyperlink ref="C34" r:id="rId45" tooltip="mailto:yuri.pinto@tcs.com" display="mailto:yuri.pinto@tcs.com" xr:uid="{2694ED69-09D6-0847-BDAC-4C65D58188A8}"/>
-    <hyperlink ref="C35" r:id="rId46" tooltip="mailto:alef.alves@accenture.com" display="mailto:alef.alves@accenture.com" xr:uid="{53A3A210-8895-C947-9159-59C3689EEE78}"/>
-    <hyperlink ref="C36" r:id="rId47" tooltip="mailto:eduardo.salomao@accenture.com" display="mailto:eduardo.salomao@accenture.com" xr:uid="{1F74AD51-E4F0-4E4A-AC75-FC6C40020D3A}"/>
-    <hyperlink ref="C37" r:id="rId48" tooltip="mailto:tiago.n.esteves@accenture.com" display="mailto:tiago.n.esteves@accenture.com" xr:uid="{7C3A7139-A4C3-5A4E-92C2-89E3B62EB5EA}"/>
-    <hyperlink ref="C38" r:id="rId49" tooltip="mailto:jonatas.pulz@accenture.com" display="mailto:jonatas.pulz@accenture.com" xr:uid="{9FE34017-471E-5444-BB75-9F14B44D45DD}"/>
-    <hyperlink ref="C39" r:id="rId50" tooltip="mailto:agustin.albertengo@accenture.com" display="mailto:agustin.albertengo@accenture.com" xr:uid="{3A352305-D09C-684E-9098-5512274590B0}"/>
-    <hyperlink ref="C40" r:id="rId51" tooltip="mailto:marcio.brandao@accenture.com" display="mailto:marcio.brandao@accenture.com" xr:uid="{B2688DDB-A590-C842-BC87-37343552AA86}"/>
-    <hyperlink ref="D2" r:id="rId52" xr:uid="{2008B0FD-B20A-42E8-AE39-3F72302D73F9}"/>
+    <hyperlink ref="C26" r:id="rId34" tooltip="mailto:luan.Ferreira@compasso.com.br" display="mailto:luan.Ferreira@compasso.com.br" xr:uid="{FA582E8E-51F4-664E-8F96-2D82DD9A307C}"/>
+    <hyperlink ref="C25" r:id="rId35" tooltip="mailto:Mateus.Balen@compasso.com.br" display="mailto:Mateus.Balen@compasso.com.br" xr:uid="{4CE8DC1E-93F6-DB49-82DB-33407495D6B6}"/>
+    <hyperlink ref="C24" r:id="rId36" tooltip="mailto:Tiago.Didone@compasso.com.br" display="mailto:Tiago.Didone@compasso.com.br" xr:uid="{8C3A38DA-2FB8-2A4E-9542-ECF4B5CBA2B6}"/>
+    <hyperlink ref="C23" r:id="rId37" xr:uid="{43B6AAD3-CC3F-224A-A3AE-1DA5499A7E8A}"/>
+    <hyperlink ref="C27" r:id="rId38" tooltip="mailto:flaibam.ph@tcs.com" display="mailto:flaibam.ph@tcs.com" xr:uid="{80D3AC66-6AF9-FF47-911B-A842C71F929A}"/>
+    <hyperlink ref="C28" r:id="rId39" tooltip="mailto:paulocezar.santos@tcs.com" display="mailto:paulocezar.santos@tcs.com" xr:uid="{F23B156A-6352-2B44-B1E3-CE4A2668F7AC}"/>
+    <hyperlink ref="C29" r:id="rId40" tooltip="mailto:andrade.caio@tcs.com" display="mailto:andrade.caio@tcs.com" xr:uid="{1850B7EB-2442-1B45-ABF3-FC1FE1D7FB94}"/>
+    <hyperlink ref="C30" r:id="rId41" tooltip="mailto:robert.martelli@tcs.com" display="mailto:robert.martelli@tcs.com" xr:uid="{0025F52C-AC58-094D-B390-74417AB3187C}"/>
+    <hyperlink ref="C31" r:id="rId42" tooltip="mailto:roberto.hindrikson@tcs.com" display="mailto:roberto.hindrikson@tcs.com" xr:uid="{8304CDE6-C640-D944-A4BE-4E5BC4E4931E}"/>
+    <hyperlink ref="C32" r:id="rId43" tooltip="mailto:islan.coelho@tcs.com" display="mailto:islan.coelho@tcs.com" xr:uid="{F852C3F6-2BD0-9E42-8277-7EA1D387B72E}"/>
+    <hyperlink ref="C33" r:id="rId44" tooltip="mailto:yuri.pinto@tcs.com" display="mailto:yuri.pinto@tcs.com" xr:uid="{2694ED69-09D6-0847-BDAC-4C65D58188A8}"/>
+    <hyperlink ref="C34" r:id="rId45" tooltip="mailto:alef.alves@accenture.com" display="mailto:alef.alves@accenture.com" xr:uid="{53A3A210-8895-C947-9159-59C3689EEE78}"/>
+    <hyperlink ref="C35" r:id="rId46" tooltip="mailto:eduardo.salomao@accenture.com" display="mailto:eduardo.salomao@accenture.com" xr:uid="{1F74AD51-E4F0-4E4A-AC75-FC6C40020D3A}"/>
+    <hyperlink ref="C36" r:id="rId47" tooltip="mailto:tiago.n.esteves@accenture.com" display="mailto:tiago.n.esteves@accenture.com" xr:uid="{7C3A7139-A4C3-5A4E-92C2-89E3B62EB5EA}"/>
+    <hyperlink ref="C37" r:id="rId48" tooltip="mailto:jonatas.pulz@accenture.com" display="mailto:jonatas.pulz@accenture.com" xr:uid="{9FE34017-471E-5444-BB75-9F14B44D45DD}"/>
+    <hyperlink ref="C38" r:id="rId49" tooltip="mailto:agustin.albertengo@accenture.com" display="mailto:agustin.albertengo@accenture.com" xr:uid="{3A352305-D09C-684E-9098-5512274590B0}"/>
+    <hyperlink ref="C39" r:id="rId50" tooltip="mailto:marcio.brandao@accenture.com" display="mailto:marcio.brandao@accenture.com" xr:uid="{B2688DDB-A590-C842-BC87-37343552AA86}"/>
+    <hyperlink ref="D2" r:id="rId51" xr:uid="{2008B0FD-B20A-42E8-AE39-3F72302D73F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AF00DB-2BFB-8243-91B8-1A1EB72F9BB3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058A9930-3DF1-41A3-AB8B-843A6F90E9A1}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>